--- a/CFO_BODYSEQ/documentation/CFO BODYSEQ 3 button version/BOM 3 button version.xlsx
+++ b/CFO_BODYSEQ/documentation/CFO BODYSEQ 3 button version/BOM 3 button version.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>Reference</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Lelon SEA101M1CBK-0607P (Radial (large) footprint)</t>
   </si>
   <si>
-    <t>D1, D7</t>
-  </si>
-  <si>
     <t>Panasonic LN842RPX</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Generic Resistor (1k) (Axial footprint)</t>
   </si>
   <si>
-    <t>S1, S2</t>
-  </si>
-  <si>
     <t>ALPS SKRGAFD010</t>
   </si>
   <si>
@@ -193,6 +187,15 @@
   </si>
   <si>
     <t>CFO BODYSEQ (3 button version) BILL OF MATERIALS</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>S1, S2, S3</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -668,12 +671,12 @@
     <col min="1" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,10 +687,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -698,10 +701,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="36">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -712,10 +718,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -726,264 +735,315 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24">
       <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="36">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24">
+    <row r="10" spans="1:5" ht="24">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="36">
       <c r="A12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="36">
       <c r="A13" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24">
       <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="36">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="36">
       <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="36">
       <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C19" s="4">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="48">
       <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36">
       <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48">
       <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="24">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7">
